--- a/Projects/JNJES/Data/KPI Exclusions Template.xlsx
+++ b/Projects/JNJES/Data/KPI Exclusions Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">KPI</t>
   </si>
@@ -79,70 +79,13 @@
     <t xml:space="preserve">product_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Admiranda Ultimate Spider Man Shower Gel Plus Cologne Cardboard Box 1 Unit Gift Pack</t>
+    <t xml:space="preserve">Admiranda Ultimate Spider Man Shower Gel Plus Cologne Cardboard Box 1 Unit Gift Pack; Babaria Baby Pack 4 ct; Corine De Farme Disney Fairies Cologne Plus Shower Gel Set Cardboard Box 1 Unit Gift Pack; Corine De Farme Disney Planes Fire And Rescue Cologne Plus Bracelet Projector Cardboard Box 1 Unit Gift Pack; Corine De Farme Disney Princess Cologne Crown Plus Clip On Earrings Set Cardboard Box 1 Unit Gift Pack; Corine De Farme Disney Starwars Cologne Hair Gel Plus Key Rings Set Cardboard Box 1 Unit Gift Pack; Corine De Farme Hair And Body Shower Gel Cardboard Box 1 Unit Gift Pack; Corine De Farme Spiderman Set Cardboard Box 1 ct; Corine De Farme Winnie The Pooh Gift Set 3 ct; Fisher - Price Bathtime Set Cardboard Box 1 Unit; I Puffi Gift Sugar Puffcoccole Set Cardboard Box 1 ct; Instituto Espanol Gold Droplets Bath Set Cardboard Box 1 ct; Luxana Canastilla Baby Care Cologne And Liquid Soap Wrap Plastic 1 Unit; Natura Verde Bio Newborn And Infancy Disney Baby Primi Bagnetti 1 ct; Natura Verde Bio Ultra Gentle Cleanser And Moisturizing Lotion Disney Baby Cuddle Bath Cardboard Box 1 Unit; Natura Verde Nature Green Bio First Bath Set 1 ct; Nenuco Pack Minnie Eau De Cologne With Doll 175 ml; Nenuco Pack Water Of Cologne Dory With Doll Nemo 175 ml; Nenuco Pack Water Of Cologne With Mickey Doll 175 ml</t>
   </si>
   <si>
     <t xml:space="preserve">sub_category</t>
   </si>
   <si>
-    <t xml:space="preserve">INCONTINENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Babaria Baby Pack 4 ct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPRESAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corine De Farme Disney Fairies Cologne Plus Shower Gel Set Cardboard Box 1 Unit Gift Pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corine De Farme Disney Planes Fire And Rescue Cologne Plus Bracelet Projector Cardboard Box 1 Unit Gift Pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corine De Farme Disney Princess Cologne Crown Plus Clip On Earrings Set Cardboard Box 1 Unit Gift Pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corine De Farme Disney Starwars Cologne Hair Gel Plus Key Rings Set Cardboard Box 1 Unit Gift Pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corine De Farme Hair And Body Shower Gel Cardboard Box 1 Unit Gift Pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corine De Farme Spiderman Set Cardboard Box 1 ct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corine De Farme Winnie The Pooh Gift Set 3 ct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fisher - Price Bathtime Set Cardboard Box 1 Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I Puffi Gift Sugar Puffcoccole Set Cardboard Box 1 ct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituto Espanol Gold Droplets Bath Set Cardboard Box 1 ct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxana Canastilla Baby Care Cologne And Liquid Soap Wrap Plastic 1 Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natura Verde Bio Newborn And Infancy Disney Baby Primi Bagnetti 1 ct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natura Verde Bio Ultra Gentle Cleanser And Moisturizing Lotion Disney Baby Cuddle Bath Cardboard Box 1 Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natura Verde Nature Green Bio First Bath Set 1 ct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nenuco Pack Minnie Eau De Cologne With Doll 175 ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nenuco Pack Water Of Cologne Dory With Doll Nemo 175 ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nenuco Pack Water Of Cologne With Mickey Doll 175 ml</t>
+    <t xml:space="preserve">INCONTINENCE; COMPRESAS</t>
   </si>
 </sst>
 </file>
@@ -365,20 +308,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3441295546559"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5465587044534"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="106.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.0526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.753036437247"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="107.975708502024"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,244 +358,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Projects/JNJES/Data/KPI Exclusions Template.xlsx
+++ b/Projects/JNJES/Data/KPI Exclusions Template.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">KPI</t>
   </si>
@@ -73,6 +73,12 @@
     <t xml:space="preserve">Value2</t>
   </si>
   <si>
+    <t xml:space="preserve">Exclude3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value3</t>
+  </si>
+  <si>
     <t xml:space="preserve">All</t>
   </si>
   <si>
@@ -82,10 +88,13 @@
     <t xml:space="preserve">Admiranda Ultimate Spider Man Shower Gel Plus Cologne Cardboard Box 1 Unit Gift Pack; Babaria Baby Pack 4 ct; Corine De Farme Disney Fairies Cologne Plus Shower Gel Set Cardboard Box 1 Unit Gift Pack; Corine De Farme Disney Planes Fire And Rescue Cologne Plus Bracelet Projector Cardboard Box 1 Unit Gift Pack; Corine De Farme Disney Princess Cologne Crown Plus Clip On Earrings Set Cardboard Box 1 Unit Gift Pack; Corine De Farme Disney Starwars Cologne Hair Gel Plus Key Rings Set Cardboard Box 1 Unit Gift Pack; Corine De Farme Hair And Body Shower Gel Cardboard Box 1 Unit Gift Pack; Corine De Farme Spiderman Set Cardboard Box 1 ct; Corine De Farme Winnie The Pooh Gift Set 3 ct; Fisher - Price Bathtime Set Cardboard Box 1 Unit; I Puffi Gift Sugar Puffcoccole Set Cardboard Box 1 ct; Instituto Espanol Gold Droplets Bath Set Cardboard Box 1 ct; Luxana Canastilla Baby Care Cologne And Liquid Soap Wrap Plastic 1 Unit; Natura Verde Bio Newborn And Infancy Disney Baby Primi Bagnetti 1 ct; Natura Verde Bio Ultra Gentle Cleanser And Moisturizing Lotion Disney Baby Cuddle Bath Cardboard Box 1 Unit; Natura Verde Nature Green Bio First Bath Set 1 ct; Nenuco Pack Minnie Eau De Cologne With Doll 175 ml; Nenuco Pack Water Of Cologne Dory With Doll Nemo 175 ml; Nenuco Pack Water Of Cologne With Mickey Doll 175 ml</t>
   </si>
   <si>
+    <t xml:space="preserve">sub_category_local_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCONTINENCE; COMPRESAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">sub_category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCONTINENCE; COMPRESAS</t>
   </si>
 </sst>
 </file>
@@ -308,23 +317,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E65536"/>
+  <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="107.975708502024"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1902834008097"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -339,23 +348,35 @@
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
